--- a/Lab_1/Tables.xlsx
+++ b/Lab_1/Tables.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lucadipietro/Desktop/UNI/Erasmus/EHC/EHCLab/Lab_1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E42C1F69-3259-034F-A1A5-F1471C53DD5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74023E8C-1CB9-0B44-AD27-456C4DC482FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16020" xr2:uid="{7C8710E0-D4D5-E54E-A4BB-E37F4F498C84}"/>
+    <workbookView xWindow="10600" yWindow="1720" windowWidth="20960" windowHeight="14240" activeTab="2" xr2:uid="{7C8710E0-D4D5-E54E-A4BB-E37F4F498C84}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
     <sheet name="Foglio2" sheetId="2" r:id="rId2"/>
+    <sheet name="Foglio3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>Colonna1</t>
   </si>
@@ -112,19 +113,123 @@
   </si>
   <si>
     <t>Colonna9</t>
+  </si>
+  <si>
+    <t>Option</t>
+  </si>
+  <si>
+    <t>EDP (ExD)</t>
+  </si>
+  <si>
+    <r>
+      <t>ED</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>P (ExDxD)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ED</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Corpo)"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>P (ExDxDxD)</t>
+    </r>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>I</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow (Corpo)"/>
     </font>
   </fonts>
   <fills count="2">
@@ -156,7 +261,10 @@
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="9">
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -195,15 +303,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9D23C27B-6488-FB4D-9FC9-48B3A95E9DE5}" name="Table_1" displayName="Table_1" ref="B3:G4" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9D23C27B-6488-FB4D-9FC9-48B3A95E9DE5}" name="Table_1" displayName="Table_1" ref="B3:G4" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
   <autoFilter ref="B3:G4" xr:uid="{9D23C27B-6488-FB4D-9FC9-48B3A95E9DE5}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{6A4FAB3C-B8F8-3A49-BF6F-79D6A8168240}" name="CPU used" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{9C20290B-E119-9C40-8E13-B2C69BE20D57}" name="#Phisical cores" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{2A7CB0DE-FA62-6A44-9E86-28BCD48D6251}" name="#Logical  cores" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{37845CFA-E711-524E-93B3-F29EBE6D3BCD}" name="Max Clock Frequency" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{7563A5EC-8567-2F45-93B0-BCC0B6C90343}" name="Size of caches" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{BBDE40D3-39DD-1E44-BAE7-C48520481250}" name="Size of physical memory" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{6A4FAB3C-B8F8-3A49-BF6F-79D6A8168240}" name="CPU used" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{9C20290B-E119-9C40-8E13-B2C69BE20D57}" name="#Phisical cores" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{2A7CB0DE-FA62-6A44-9E86-28BCD48D6251}" name="#Logical  cores" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{37845CFA-E711-524E-93B3-F29EBE6D3BCD}" name="Max Clock Frequency" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{7563A5EC-8567-2F45-93B0-BCC0B6C90343}" name="Size of caches" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{BBDE40D3-39DD-1E44-BAE7-C48520481250}" name="Size of physical memory" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -234,6 +342,19 @@
     <tableColumn id="7" xr3:uid="{47804360-C00C-EB41-ACB4-9D3382A8DBFE}" name="Colonna7"/>
     <tableColumn id="8" xr3:uid="{F7F48973-483E-0B4F-A0DF-BADCAA1EC4E8}" name="Colonna8"/>
     <tableColumn id="9" xr3:uid="{0FCA2E73-808A-4541-B23C-83EA6C7664D3}" name="Colonna9"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{3C85B5C2-E3B6-0148-80A3-752F04DCCA0D}" name="Tabella3" displayName="Tabella3" ref="A1:D13" totalsRowShown="0">
+  <autoFilter ref="A1:D13" xr:uid="{3C85B5C2-E3B6-0148-80A3-752F04DCCA0D}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{7198354A-E1DF-6140-829E-102C9FAC6201}" name="Option" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{2D52263B-C1F5-6C46-8746-E9EFF5373C9C}" name="EDP (ExD)"/>
+    <tableColumn id="3" xr3:uid="{7BBF4155-5EE9-AF48-9B67-65DA0C896F31}" name="ED2P (ExDxD)"/>
+    <tableColumn id="4" xr3:uid="{6A00F963-8B4E-294B-9352-D7492B804A89}" name="ED3P (ExDxDxD)"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -558,7 +679,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBE2BB4C-8B45-E14E-BB9C-83126F32B72A}">
   <dimension ref="B3:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
@@ -693,4 +814,102 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59113A16-097B-FF47-B268-BA291D7DA61F}">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.1640625" customWidth="1"/>
+    <col min="2" max="2" width="19.1640625" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" customWidth="1"/>
+    <col min="4" max="4" width="20.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/Lab_1/Tables.xlsx
+++ b/Lab_1/Tables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franc\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lucadipietro/Desktop/UNI/Erasmus/EHC/EHCLab/Lab_1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2127C55-3E31-40D0-A528-A34CD1A377CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A847836-27B5-DA4A-93D9-E39258FA9736}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{7C8710E0-D4D5-E54E-A4BB-E37F4F498C84}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{7C8710E0-D4D5-E54E-A4BB-E37F4F498C84}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="54">
   <si>
     <t>CPU used</t>
   </si>
@@ -66,27 +66,6 @@
     <t>Details about the power scheme active</t>
   </si>
   <si>
-    <t>3.192 GHz</t>
-  </si>
-  <si>
-    <t>16.275 MB</t>
-  </si>
-  <si>
-    <t>Windows 10 Enterprise LTSC 10.0.19044</t>
-  </si>
-  <si>
-    <t>Intel Core i5-6500</t>
-  </si>
-  <si>
-    <t>L1: 256KB; L2: 1024KB ; L3: 6144KB</t>
-  </si>
-  <si>
-    <t>UPORTO</t>
-  </si>
-  <si>
-    <t>a32a10c9-dbbb-4d59-ac3a-31a268b92d52</t>
-  </si>
-  <si>
     <t>Type of Implemantation</t>
   </si>
   <si>
@@ -190,19 +169,102 @@
   </si>
   <si>
     <t>-O0s -fopenmp</t>
+  </si>
+  <si>
+    <t>EDP (ExD)</t>
+  </si>
+  <si>
+    <r>
+      <t>ED</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Corpo)"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>P (ExDxD)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ED</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Corpo)"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>P (ExDxDxD)</t>
+    </r>
+  </si>
+  <si>
+    <t>Intel Core i7-8565U</t>
+  </si>
+  <si>
+    <t>1.8 GHz</t>
+  </si>
+  <si>
+    <t>L1: 256KB; L2: 1024KB ; L3: 8192KB</t>
+  </si>
+  <si>
+    <t>16.384 MB</t>
+  </si>
+  <si>
+    <t>Windows 11 Home 10.0.22631</t>
+  </si>
+  <si>
+    <t>Balanced</t>
+  </si>
+  <si>
+    <t>381b4222-f694-41f0-9685-ff5bb260df2e</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow (Corpo)"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
     </font>
   </fonts>
   <fills count="2">
@@ -230,26 +292,103 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="29">
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -289,52 +428,71 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9D23C27B-6488-FB4D-9FC9-48B3A95E9DE5}" name="Table_1" displayName="Table_1" ref="B3:G4" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9D23C27B-6488-FB4D-9FC9-48B3A95E9DE5}" name="Table_1" displayName="Table_1" ref="B3:G4" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27">
   <autoFilter ref="B3:G4" xr:uid="{9D23C27B-6488-FB4D-9FC9-48B3A95E9DE5}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{6A4FAB3C-B8F8-3A49-BF6F-79D6A8168240}" name="CPU used" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{9C20290B-E119-9C40-8E13-B2C69BE20D57}" name="#Phisical cores" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{2A7CB0DE-FA62-6A44-9E86-28BCD48D6251}" name="#Logical  cores" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{37845CFA-E711-524E-93B3-F29EBE6D3BCD}" name="Max Clock Frequency" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{7563A5EC-8567-2F45-93B0-BCC0B6C90343}" name="Size of caches" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{BBDE40D3-39DD-1E44-BAE7-C48520481250}" name="Size of physical memory" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{6A4FAB3C-B8F8-3A49-BF6F-79D6A8168240}" name="CPU used" dataDxfId="26"/>
+    <tableColumn id="2" xr3:uid="{9C20290B-E119-9C40-8E13-B2C69BE20D57}" name="#Phisical cores" dataDxfId="25"/>
+    <tableColumn id="3" xr3:uid="{2A7CB0DE-FA62-6A44-9E86-28BCD48D6251}" name="#Logical  cores" dataDxfId="24"/>
+    <tableColumn id="4" xr3:uid="{37845CFA-E711-524E-93B3-F29EBE6D3BCD}" name="Max Clock Frequency" dataDxfId="23"/>
+    <tableColumn id="5" xr3:uid="{7563A5EC-8567-2F45-93B0-BCC0B6C90343}" name="Size of caches" dataDxfId="22"/>
+    <tableColumn id="6" xr3:uid="{BBDE40D3-39DD-1E44-BAE7-C48520481250}" name="Size of physical memory" dataDxfId="21"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{03F92B77-8A43-5845-AC09-CE1E9CC33301}" name="Table_2" displayName="Table_2" ref="B15:D16" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{03F92B77-8A43-5845-AC09-CE1E9CC33301}" name="Table_2" displayName="Table_2" ref="B15:D16" totalsRowShown="0" dataDxfId="17">
   <autoFilter ref="B15:D16" xr:uid="{03F92B77-8A43-5845-AC09-CE1E9CC33301}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{B92491EB-AB69-7741-852A-02D7E9ADCF77}" name="Operating system"/>
-    <tableColumn id="2" xr3:uid="{C9297B7B-F051-BF43-B334-DC86E4992E5B}" name="Power scheme active"/>
-    <tableColumn id="3" xr3:uid="{467CF970-367B-EA44-B414-9CA7F2E304FA}" name="Details about the power scheme active"/>
+    <tableColumn id="1" xr3:uid="{B92491EB-AB69-7741-852A-02D7E9ADCF77}" name="Operating system" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{C9297B7B-F051-BF43-B334-DC86E4992E5B}" name="Power scheme active" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{467CF970-367B-EA44-B414-9CA7F2E304FA}" name="Details about the power scheme active" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{136D52EB-8184-C64A-AFF0-427831FB8B43}" name="Tabella4" displayName="Tabella4" ref="A1:I13" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{136D52EB-8184-C64A-AFF0-427831FB8B43}" name="Tabella4" displayName="Tabella4" ref="A1:I13" totalsRowShown="0" headerRowDxfId="1" dataDxfId="7">
   <autoFilter ref="A1:I13" xr:uid="{136D52EB-8184-C64A-AFF0-427831FB8B43}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{68E63E99-306C-A841-8650-E237390F00E5}" name="Type of Implemantation"/>
-    <tableColumn id="2" xr3:uid="{7879F9DD-08CC-584C-AD34-2F1B6FCDBC94}" name="Option"/>
-    <tableColumn id="3" xr3:uid="{5E7B527B-99BB-9247-91F6-7023DAD529E2}" name="GNU gcc compiler flags " dataDxfId="3">
+    <tableColumn id="1" xr3:uid="{68E63E99-306C-A841-8650-E237390F00E5}" name="Type of Implemantation" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{7879F9DD-08CC-584C-AD34-2F1B6FCDBC94}" name="Option" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{5E7B527B-99BB-9247-91F6-7023DAD529E2}" name="GNU gcc compiler flags " dataDxfId="14">
       <calculatedColumnFormula array="1">-O0</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{8417D1A0-89D1-3342-8FC1-ADD57F3298B7}" name="Execution Time (s)"/>
-    <tableColumn id="5" xr3:uid="{CE131A6B-2E08-D84E-989B-552CC0719F51}" name="Power Dissipation (W)"/>
-    <tableColumn id="6" xr3:uid="{E9070A9C-8219-EF46-9B82-45B298E46AC8}" name="Energy Consuption (J)"/>
-    <tableColumn id="7" xr3:uid="{47804360-C00C-EB41-ACB4-9D3382A8DBFE}" name="Speedup (vs. single-thread - O0)" dataDxfId="2">
+    <tableColumn id="4" xr3:uid="{8417D1A0-89D1-3342-8FC1-ADD57F3298B7}" name="Execution Time (s)" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{CE131A6B-2E08-D84E-989B-552CC0719F51}" name="Power Dissipation (W)" dataDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{E9070A9C-8219-EF46-9B82-45B298E46AC8}" name="Energy Consuption (J)" dataDxfId="11"/>
+    <tableColumn id="7" xr3:uid="{47804360-C00C-EB41-ACB4-9D3382A8DBFE}" name="Speedup (vs. single-thread - O0)" dataDxfId="10">
       <calculatedColumnFormula>$D$2/Tabella4[[#This Row],[Execution Time (s)]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{F7F48973-483E-0B4F-A0DF-BADCAA1EC4E8}" name="Power Dissipation Reduction (%)" dataDxfId="1">
+    <tableColumn id="8" xr3:uid="{F7F48973-483E-0B4F-A0DF-BADCAA1EC4E8}" name="Power Dissipation Reduction (%)" dataDxfId="9">
       <calculatedColumnFormula>100*(1-$E$2/Tabella4[[#This Row],[Power Dissipation (W)]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{0FCA2E73-808A-4541-B23C-83EA6C7664D3}" name="Energy Consumption Reduction (%)" dataDxfId="0">
+    <tableColumn id="9" xr3:uid="{0FCA2E73-808A-4541-B23C-83EA6C7664D3}" name="Energy Consumption Reduction (%)" dataDxfId="8">
       <calculatedColumnFormula>100*(1-$F$2/Tabella4[[#This Row],[Energy Consuption (J)]])</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{2D36CC6E-302F-6545-B6BF-A49D18CE8478}" name="Tabella3" displayName="Tabella3" ref="A19:D31" totalsRowShown="0" headerRowDxfId="0" dataDxfId="2">
+  <autoFilter ref="A19:D31" xr:uid="{2D36CC6E-302F-6545-B6BF-A49D18CE8478}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{F0BCA12A-8553-A448-B41D-23EB2E41E44B}" name="Option" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{A7363DCA-EC85-C44C-932A-F320F4471054}" name="EDP (ExD)" dataDxfId="5">
+      <calculatedColumnFormula>F2*D2</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{EB53CE2E-49E5-E840-896F-C6667CEE39FE}" name="ED2P (ExDxD)" dataDxfId="4">
+      <calculatedColumnFormula>F2*(D2^2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{D86B92A7-314F-7441-91E5-347DBDC78E77}" name="ED3P (ExDxDxD)" dataDxfId="3">
+      <calculatedColumnFormula>F2*(D2^3)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -661,22 +819,22 @@
   <dimension ref="B3:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.296875" customWidth="1"/>
-    <col min="2" max="2" width="48.69921875" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" customWidth="1"/>
+    <col min="2" max="2" width="48.6640625" customWidth="1"/>
     <col min="3" max="3" width="28.5" customWidth="1"/>
-    <col min="4" max="4" width="44.19921875" customWidth="1"/>
+    <col min="4" max="4" width="44.1640625" customWidth="1"/>
     <col min="5" max="5" width="21.5" customWidth="1"/>
-    <col min="6" max="6" width="32.69921875" customWidth="1"/>
-    <col min="7" max="7" width="24.69921875" customWidth="1"/>
-    <col min="8" max="10" width="11.296875" customWidth="1"/>
+    <col min="6" max="6" width="32.6640625" customWidth="1"/>
+    <col min="7" max="7" width="24.6640625" customWidth="1"/>
+    <col min="8" max="10" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -696,27 +854,27 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="C4" s="1">
         <v>4</v>
       </c>
       <c r="D4" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>6</v>
       </c>
@@ -727,15 +885,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B16" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" t="s">
-        <v>15</v>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B16" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -749,437 +907,662 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56F736FC-EA4B-204D-A653-584D4E015D61}">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.69921875" customWidth="1"/>
-    <col min="2" max="2" width="8.5" customWidth="1"/>
-    <col min="3" max="3" width="14.5" customWidth="1"/>
-    <col min="4" max="9" width="11.296875" customWidth="1"/>
+    <col min="1" max="1" width="23.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.1640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="21" style="1" customWidth="1"/>
+    <col min="7" max="7" width="30" style="1" customWidth="1"/>
+    <col min="8" max="8" width="31.83203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="33.33203125" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="11.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="I1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="B2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>39</v>
+      <c r="C2" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="D2" s="4">
         <v>9886523</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="4">
         <v>13998178</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="4">
         <v>138393311</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="1">
         <f>$D$2/Tabella4[[#This Row],[Execution Time (s)]]</f>
         <v>1</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="1">
         <f>100*(1-$E$2/Tabella4[[#This Row],[Power Dissipation (W)]])</f>
         <v>0</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="1">
         <f>100*(1-$F$2/Tabella4[[#This Row],[Energy Consuption (J)]])</f>
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" t="s">
-        <v>29</v>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D3" s="5">
+        <v>33</v>
+      </c>
+      <c r="D3" s="4">
         <v>17440164</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="4">
         <v>13225833</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="4">
         <v>230660706</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="1">
         <f>$D$2/Tabella4[[#This Row],[Execution Time (s)]]</f>
         <v>0.56688245592185948</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="1">
         <f>100*(1-$E$2/Tabella4[[#This Row],[Power Dissipation (W)]])</f>
         <v>-5.8396699852478084</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="1">
         <f>100*(1-$F$2/Tabella4[[#This Row],[Energy Consuption (J)]])</f>
         <v>40.001349427934208</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" t="s">
-        <v>30</v>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D4" s="5">
+        <v>34</v>
+      </c>
+      <c r="D4" s="4">
         <v>15760976</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="4">
         <v>14770964</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="4">
         <v>232804810</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="1">
         <f>$D$2/Tabella4[[#This Row],[Execution Time (s)]]</f>
         <v>0.62727860254339574</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="1">
         <f>100*(1-$E$2/Tabella4[[#This Row],[Power Dissipation (W)]])</f>
         <v>5.2317912358326835</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="1">
         <f>100*(1-$F$2/Tabella4[[#This Row],[Energy Consuption (J)]])</f>
         <v>40.553929706177463</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" t="s">
-        <v>28</v>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D5" s="5">
+        <v>35</v>
+      </c>
+      <c r="D5" s="4">
         <v>15701217</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="4">
         <v>14967933</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="4">
         <v>235014771</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="1">
         <f>$D$2/Tabella4[[#This Row],[Execution Time (s)]]</f>
         <v>0.62966603162035151</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="1">
         <f>100*(1-$E$2/Tabella4[[#This Row],[Power Dissipation (W)]])</f>
         <v>6.4788838913161895</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="1">
         <f>100*(1-$F$2/Tabella4[[#This Row],[Energy Consuption (J)]])</f>
         <v>41.11293072723501</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" t="s">
-        <v>31</v>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D6" s="5">
+        <v>36</v>
+      </c>
+      <c r="D6" s="4">
         <v>18722061</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="4">
         <v>11472078</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="4">
         <v>214780945</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="1">
         <f>$D$2/Tabella4[[#This Row],[Execution Time (s)]]</f>
         <v>0.52806809036676039</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="1">
         <f>100*(1-$E$2/Tabella4[[#This Row],[Power Dissipation (W)]])</f>
         <v>-22.019550424953515</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="1">
         <f>100*(1-$F$2/Tabella4[[#This Row],[Energy Consuption (J)]])</f>
         <v>35.565368240650955</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B7" t="s">
-        <v>32</v>
-      </c>
       <c r="C7" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" s="5">
+        <v>37</v>
+      </c>
+      <c r="D7" s="4">
         <v>17397162</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="4">
         <v>13284760</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="4">
         <v>231117126</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="1">
         <f>$D$2/Tabella4[[#This Row],[Execution Time (s)]]</f>
         <v>0.56828366603702374</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="1">
         <f>100*(1-$E$2/Tabella4[[#This Row],[Power Dissipation (W)]])</f>
         <v>-5.3701986336222918</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="1">
         <f>100*(1-$F$2/Tabella4[[#This Row],[Energy Consuption (J)]])</f>
         <v>40.119837333041254</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B8" t="s">
-        <v>33</v>
-      </c>
       <c r="C8" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D8" s="5">
+        <v>38</v>
+      </c>
+      <c r="D8" s="4">
         <v>3209316</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="4">
         <v>32610843</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="4">
         <v>104658508</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="1">
         <f>$D$2/Tabella4[[#This Row],[Execution Time (s)]]</f>
         <v>3.0805701277156876</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="1">
         <f>100*(1-$E$2/Tabella4[[#This Row],[Power Dissipation (W)]])</f>
         <v>57.075080825110838</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="1">
         <f>100*(1-$F$2/Tabella4[[#This Row],[Energy Consuption (J)]])</f>
         <v>-32.233216051579873</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" t="s">
-        <v>34</v>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D9" s="5">
+        <v>39</v>
+      </c>
+      <c r="D9" s="4">
         <v>3384094</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="4">
         <v>29111445</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="4">
         <v>98515869</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="1">
         <f>$D$2/Tabella4[[#This Row],[Execution Time (s)]]</f>
         <v>2.9214681979874082</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="1">
         <f>100*(1-$E$2/Tabella4[[#This Row],[Power Dissipation (W)]])</f>
         <v>51.915207232069726</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="1">
         <f>100*(1-$F$2/Tabella4[[#This Row],[Energy Consuption (J)]])</f>
         <v>-40.478191386607975</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" t="s">
-        <v>35</v>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D10" s="5">
+        <v>40</v>
+      </c>
+      <c r="D10" s="4">
         <v>4103246</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="4">
         <v>18150825</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="4">
         <v>74477295</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="1">
         <f>$D$2/Tabella4[[#This Row],[Execution Time (s)]]</f>
         <v>2.4094395022867263</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="1">
         <f>100*(1-$E$2/Tabella4[[#This Row],[Power Dissipation (W)]])</f>
         <v>22.878557861694993</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="1">
         <f>100*(1-$F$2/Tabella4[[#This Row],[Energy Consuption (J)]])</f>
         <v>-85.81946484495711</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" t="s">
-        <v>36</v>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D11" s="5">
+        <v>41</v>
+      </c>
+      <c r="D11" s="4">
         <v>3815650</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="4">
         <v>22145318</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="4">
         <v>84498779</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="1">
         <f>$D$2/Tabella4[[#This Row],[Execution Time (s)]]</f>
         <v>2.5910455623550379</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="1">
         <f>100*(1-$E$2/Tabella4[[#This Row],[Power Dissipation (W)]])</f>
         <v>36.789446870891631</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="1">
         <f>100*(1-$F$2/Tabella4[[#This Row],[Energy Consuption (J)]])</f>
         <v>-63.781432865438205</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" t="s">
-        <v>37</v>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D12" s="5">
+        <v>42</v>
+      </c>
+      <c r="D12" s="4">
         <v>4106920</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="4">
         <v>18505605</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="4">
         <v>76001038</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="1">
         <f>$D$2/Tabella4[[#This Row],[Execution Time (s)]]</f>
         <v>2.4072840474126598</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="1">
         <f>100*(1-$E$2/Tabella4[[#This Row],[Power Dissipation (W)]])</f>
         <v>24.357090730078802</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="1">
         <f>100*(1-$F$2/Tabella4[[#This Row],[Energy Consuption (J)]])</f>
         <v>-82.093974821764931</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" t="s">
-        <v>38</v>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D13">
+        <v>43</v>
+      </c>
+      <c r="D13" s="1">
         <v>0.10897999999999999</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="4">
         <v>2716294</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="1">
         <v>0.29602099999999998</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="1">
         <f>$D$2/Tabella4[[#This Row],[Execution Time (s)]]</f>
         <v>90718691.50302808</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="1">
         <f>100*(1-$E$2/Tabella4[[#This Row],[Power Dissipation (W)]])</f>
         <v>-415.34104923841085</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="1">
         <f>100*(1-$F$2/Tabella4[[#This Row],[Energy Consuption (J)]])</f>
         <v>-46751180052.759438</v>
       </c>
     </row>
+    <row r="19" spans="1:4" s="5" customFormat="1" ht="19" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="1">
+        <f>F2*D2</f>
+        <v>1368228652247653</v>
+      </c>
+      <c r="C20" s="1">
+        <f t="shared" ref="C20:C31" si="0">F2*(D2^2)</f>
+        <v>1.3527024039705423E+22</v>
+      </c>
+      <c r="D20" s="1">
+        <f t="shared" ref="D20:D31" si="1">F2*(D2^3)</f>
+        <v>1.3373523429010058E+29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="1">
+        <f t="shared" ref="B20:B31" si="2">F3*D3</f>
+        <v>4022760540995784</v>
+      </c>
+      <c r="C21" s="1">
+        <f t="shared" si="0"/>
+        <v>7.0157603567695194E+22</v>
+      </c>
+      <c r="D21" s="1">
+        <f t="shared" si="1"/>
+        <v>1.2235601120675893E+30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="1">
+        <f t="shared" si="2"/>
+        <v>3669231023094560</v>
+      </c>
+      <c r="C22" s="1">
+        <f t="shared" si="0"/>
+        <v>5.7830662093448805E+22</v>
+      </c>
+      <c r="D22" s="1">
+        <f t="shared" si="1"/>
+        <v>9.114676773189564E+29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="1">
+        <f t="shared" si="2"/>
+        <v>3690017917676307</v>
+      </c>
+      <c r="C23" s="1">
+        <f t="shared" si="0"/>
+        <v>5.7937772059323829E+22</v>
+      </c>
+      <c r="D23" s="1">
+        <f t="shared" si="1"/>
+        <v>9.0969353159998037E+29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="1">
+        <f t="shared" si="2"/>
+        <v>4021141953927645</v>
+      </c>
+      <c r="C24" s="1">
+        <f t="shared" si="0"/>
+        <v>7.5284064951092558E+22</v>
+      </c>
+      <c r="D24" s="1">
+        <f t="shared" si="1"/>
+        <v>1.4094728563423167E+30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="1">
+        <f t="shared" si="2"/>
+        <v>4020782081996412</v>
+      </c>
+      <c r="C25" s="1">
+        <f t="shared" si="0"/>
+        <v>6.9950197247188866E+22</v>
+      </c>
+      <c r="D25" s="1">
+        <f t="shared" si="1"/>
+        <v>1.2169349134412987E+30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="1">
+        <f t="shared" si="2"/>
+        <v>335882224260528</v>
+      </c>
+      <c r="C26" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0779521964349007E+21</v>
+      </c>
+      <c r="D26" s="1">
+        <f t="shared" si="1"/>
+        <v>3.4594892312536696E+27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="1">
+        <f t="shared" si="2"/>
+        <v>333386961187686</v>
+      </c>
+      <c r="C27" s="1">
+        <f t="shared" si="0"/>
+        <v>1.128212815033481E+21</v>
+      </c>
+      <c r="D27" s="1">
+        <f t="shared" si="1"/>
+        <v>3.8179782180779125E+27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" s="1">
+        <f t="shared" si="2"/>
+        <v>305598662799570</v>
+      </c>
+      <c r="C28" s="1">
+        <f t="shared" si="0"/>
+        <v>1.2539464907376844E+21</v>
+      </c>
+      <c r="D28" s="1">
+        <f t="shared" si="1"/>
+        <v>5.14525092233344E+27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" s="1">
+        <f t="shared" si="2"/>
+        <v>322417766091350</v>
+      </c>
+      <c r="C29" s="1">
+        <f t="shared" si="0"/>
+        <v>1.2302333491864595E+21</v>
+      </c>
+      <c r="D29" s="1">
+        <f t="shared" si="1"/>
+        <v>4.6941398788233146E+27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" s="1">
+        <f t="shared" si="2"/>
+        <v>312130182982960</v>
+      </c>
+      <c r="C30" s="1">
+        <f t="shared" si="0"/>
+        <v>1.2818936910963781E+21</v>
+      </c>
+      <c r="D30" s="1">
+        <f t="shared" si="1"/>
+        <v>5.2646348378375369E+27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" s="1">
+        <f t="shared" si="2"/>
+        <v>3.2260368579999997E-2</v>
+      </c>
+      <c r="C31" s="1">
+        <f t="shared" si="0"/>
+        <v>3.5157349678483995E-3</v>
+      </c>
+      <c r="D31" s="1">
+        <f t="shared" si="1"/>
+        <v>3.8314479679611859E-4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
+  <tableParts count="2">
     <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Lab_1/Tables.xlsx
+++ b/Lab_1/Tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lucadipietro/Desktop/UNI/Erasmus/EHC/EHCLab/Lab_1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A847836-27B5-DA4A-93D9-E39258FA9736}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21627EBE-C22D-2F42-8054-4FAC948CCAC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{7C8710E0-D4D5-E54E-A4BB-E37F4F498C84}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16080" activeTab="1" xr2:uid="{7C8710E0-D4D5-E54E-A4BB-E37F4F498C84}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -168,9 +168,6 @@
     <t>-Ofast -fopenmp</t>
   </si>
   <si>
-    <t>-O0s -fopenmp</t>
-  </si>
-  <si>
     <t>EDP (ExD)</t>
   </si>
   <si>
@@ -242,11 +239,17 @@
   <si>
     <t>381b4222-f694-41f0-9685-ff5bb260df2e</t>
   </si>
+  <si>
+    <t>-Os -fopenmp</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -298,11 +301,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -310,65 +313,65 @@
   </cellStyles>
   <dxfs count="29">
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -382,6 +385,9 @@
         <name val="Aptos Narrow"/>
         <scheme val="none"/>
       </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -443,36 +449,36 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{03F92B77-8A43-5845-AC09-CE1E9CC33301}" name="Table_2" displayName="Table_2" ref="B15:D16" totalsRowShown="0" dataDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{03F92B77-8A43-5845-AC09-CE1E9CC33301}" name="Table_2" displayName="Table_2" ref="B15:D16" totalsRowShown="0" dataDxfId="20">
   <autoFilter ref="B15:D16" xr:uid="{03F92B77-8A43-5845-AC09-CE1E9CC33301}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{B92491EB-AB69-7741-852A-02D7E9ADCF77}" name="Operating system" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{C9297B7B-F051-BF43-B334-DC86E4992E5B}" name="Power scheme active" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{467CF970-367B-EA44-B414-9CA7F2E304FA}" name="Details about the power scheme active" dataDxfId="18"/>
+    <tableColumn id="1" xr3:uid="{B92491EB-AB69-7741-852A-02D7E9ADCF77}" name="Operating system" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{C9297B7B-F051-BF43-B334-DC86E4992E5B}" name="Power scheme active" dataDxfId="18"/>
+    <tableColumn id="3" xr3:uid="{467CF970-367B-EA44-B414-9CA7F2E304FA}" name="Details about the power scheme active" dataDxfId="17"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{136D52EB-8184-C64A-AFF0-427831FB8B43}" name="Tabella4" displayName="Tabella4" ref="A1:I13" totalsRowShown="0" headerRowDxfId="1" dataDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{136D52EB-8184-C64A-AFF0-427831FB8B43}" name="Tabella4" displayName="Tabella4" ref="A1:I13" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
   <autoFilter ref="A1:I13" xr:uid="{136D52EB-8184-C64A-AFF0-427831FB8B43}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{68E63E99-306C-A841-8650-E237390F00E5}" name="Type of Implemantation" dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{7879F9DD-08CC-584C-AD34-2F1B6FCDBC94}" name="Option" dataDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{5E7B527B-99BB-9247-91F6-7023DAD529E2}" name="GNU gcc compiler flags " dataDxfId="14">
+    <tableColumn id="1" xr3:uid="{68E63E99-306C-A841-8650-E237390F00E5}" name="Type of Implemantation" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{7879F9DD-08CC-584C-AD34-2F1B6FCDBC94}" name="Option" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{5E7B527B-99BB-9247-91F6-7023DAD529E2}" name="GNU gcc compiler flags " dataDxfId="12">
       <calculatedColumnFormula array="1">-O0</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{8417D1A0-89D1-3342-8FC1-ADD57F3298B7}" name="Execution Time (s)" dataDxfId="13"/>
-    <tableColumn id="5" xr3:uid="{CE131A6B-2E08-D84E-989B-552CC0719F51}" name="Power Dissipation (W)" dataDxfId="12"/>
-    <tableColumn id="6" xr3:uid="{E9070A9C-8219-EF46-9B82-45B298E46AC8}" name="Energy Consuption (J)" dataDxfId="11"/>
-    <tableColumn id="7" xr3:uid="{47804360-C00C-EB41-ACB4-9D3382A8DBFE}" name="Speedup (vs. single-thread - O0)" dataDxfId="10">
+    <tableColumn id="4" xr3:uid="{8417D1A0-89D1-3342-8FC1-ADD57F3298B7}" name="Execution Time (s)" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{CE131A6B-2E08-D84E-989B-552CC0719F51}" name="Power Dissipation (W)" dataDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{E9070A9C-8219-EF46-9B82-45B298E46AC8}" name="Energy Consuption (J)" dataDxfId="9"/>
+    <tableColumn id="7" xr3:uid="{47804360-C00C-EB41-ACB4-9D3382A8DBFE}" name="Speedup (vs. single-thread - O0)" dataDxfId="8">
       <calculatedColumnFormula>$D$2/Tabella4[[#This Row],[Execution Time (s)]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{F7F48973-483E-0B4F-A0DF-BADCAA1EC4E8}" name="Power Dissipation Reduction (%)" dataDxfId="9">
+    <tableColumn id="8" xr3:uid="{F7F48973-483E-0B4F-A0DF-BADCAA1EC4E8}" name="Power Dissipation Reduction (%)" dataDxfId="7">
       <calculatedColumnFormula>100*(1-$E$2/Tabella4[[#This Row],[Power Dissipation (W)]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{0FCA2E73-808A-4541-B23C-83EA6C7664D3}" name="Energy Consumption Reduction (%)" dataDxfId="8">
+    <tableColumn id="9" xr3:uid="{0FCA2E73-808A-4541-B23C-83EA6C7664D3}" name="Energy Consumption Reduction (%)" dataDxfId="6">
       <calculatedColumnFormula>100*(1-$F$2/Tabella4[[#This Row],[Energy Consuption (J)]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -481,17 +487,17 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{2D36CC6E-302F-6545-B6BF-A49D18CE8478}" name="Tabella3" displayName="Tabella3" ref="A19:D31" totalsRowShown="0" headerRowDxfId="0" dataDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{2D36CC6E-302F-6545-B6BF-A49D18CE8478}" name="Tabella3" displayName="Tabella3" ref="A19:D31" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
   <autoFilter ref="A19:D31" xr:uid="{2D36CC6E-302F-6545-B6BF-A49D18CE8478}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{F0BCA12A-8553-A448-B41D-23EB2E41E44B}" name="Option" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{A7363DCA-EC85-C44C-932A-F320F4471054}" name="EDP (ExD)" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{F0BCA12A-8553-A448-B41D-23EB2E41E44B}" name="Option" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{A7363DCA-EC85-C44C-932A-F320F4471054}" name="EDP (ExD)" dataDxfId="2">
       <calculatedColumnFormula>F2*D2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{EB53CE2E-49E5-E840-896F-C6667CEE39FE}" name="ED2P (ExDxD)" dataDxfId="4">
+    <tableColumn id="3" xr3:uid="{EB53CE2E-49E5-E840-896F-C6667CEE39FE}" name="ED2P (ExDxD)" dataDxfId="1">
       <calculatedColumnFormula>F2*(D2^2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{D86B92A7-314F-7441-91E5-347DBDC78E77}" name="ED3P (ExDxDxD)" dataDxfId="3">
+    <tableColumn id="4" xr3:uid="{D86B92A7-314F-7441-91E5-347DBDC78E77}" name="ED3P (ExDxDxD)" dataDxfId="0">
       <calculatedColumnFormula>F2*(D2^3)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -856,7 +862,7 @@
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C4" s="1">
         <v>4</v>
@@ -865,13 +871,13 @@
         <v>8</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.2">
@@ -887,13 +893,13 @@
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="D16" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -910,7 +916,7 @@
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -927,32 +933,32 @@
     <col min="10" max="16384" width="11.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="4" t="s">
         <v>17</v>
       </c>
     </row>
@@ -966,14 +972,14 @@
       <c r="C2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="4">
-        <v>9886523</v>
-      </c>
-      <c r="E2" s="4">
-        <v>13998178</v>
-      </c>
-      <c r="F2" s="4">
-        <v>138393311</v>
+      <c r="D2" s="5">
+        <v>9.8865230000000004</v>
+      </c>
+      <c r="E2" s="5">
+        <v>13.998177999999999</v>
+      </c>
+      <c r="F2" s="5">
+        <v>138.39331100000001</v>
       </c>
       <c r="G2" s="1">
         <f>$D$2/Tabella4[[#This Row],[Execution Time (s)]]</f>
@@ -998,14 +1004,14 @@
       <c r="C3" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="4">
-        <v>17440164</v>
-      </c>
-      <c r="E3" s="4">
-        <v>13225833</v>
-      </c>
-      <c r="F3" s="4">
-        <v>230660706</v>
+      <c r="D3" s="5">
+        <v>17.440163999999999</v>
+      </c>
+      <c r="E3" s="5">
+        <v>13.225833</v>
+      </c>
+      <c r="F3" s="5">
+        <v>230.660706</v>
       </c>
       <c r="G3" s="1">
         <f>$D$2/Tabella4[[#This Row],[Execution Time (s)]]</f>
@@ -1030,18 +1036,18 @@
       <c r="C4" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="4">
-        <v>15760976</v>
-      </c>
-      <c r="E4" s="4">
-        <v>14770964</v>
-      </c>
-      <c r="F4" s="4">
-        <v>232804810</v>
+      <c r="D4" s="5">
+        <v>15.760975999999999</v>
+      </c>
+      <c r="E4" s="5">
+        <v>14.770963999999999</v>
+      </c>
+      <c r="F4" s="5">
+        <v>232.80481</v>
       </c>
       <c r="G4" s="1">
         <f>$D$2/Tabella4[[#This Row],[Execution Time (s)]]</f>
-        <v>0.62727860254339574</v>
+        <v>0.62727860254339585</v>
       </c>
       <c r="H4" s="1">
         <f>100*(1-$E$2/Tabella4[[#This Row],[Power Dissipation (W)]])</f>
@@ -1062,14 +1068,14 @@
       <c r="C5" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="4">
-        <v>15701217</v>
-      </c>
-      <c r="E5" s="4">
-        <v>14967933</v>
-      </c>
-      <c r="F5" s="4">
-        <v>235014771</v>
+      <c r="D5" s="5">
+        <v>15.701217</v>
+      </c>
+      <c r="E5" s="5">
+        <v>14.967933</v>
+      </c>
+      <c r="F5" s="5">
+        <v>235.014771</v>
       </c>
       <c r="G5" s="1">
         <f>$D$2/Tabella4[[#This Row],[Execution Time (s)]]</f>
@@ -1077,7 +1083,7 @@
       </c>
       <c r="H5" s="1">
         <f>100*(1-$E$2/Tabella4[[#This Row],[Power Dissipation (W)]])</f>
-        <v>6.4788838913161895</v>
+        <v>6.478883891316201</v>
       </c>
       <c r="I5" s="1">
         <f>100*(1-$F$2/Tabella4[[#This Row],[Energy Consuption (J)]])</f>
@@ -1094,14 +1100,14 @@
       <c r="C6" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="4">
-        <v>18722061</v>
-      </c>
-      <c r="E6" s="4">
-        <v>11472078</v>
-      </c>
-      <c r="F6" s="4">
-        <v>214780945</v>
+      <c r="D6" s="5">
+        <v>18.722061</v>
+      </c>
+      <c r="E6" s="5">
+        <v>11.472078</v>
+      </c>
+      <c r="F6" s="5">
+        <v>214.780945</v>
       </c>
       <c r="G6" s="1">
         <f>$D$2/Tabella4[[#This Row],[Execution Time (s)]]</f>
@@ -1126,14 +1132,14 @@
       <c r="C7" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="4">
-        <v>17397162</v>
-      </c>
-      <c r="E7" s="4">
-        <v>13284760</v>
-      </c>
-      <c r="F7" s="4">
-        <v>231117126</v>
+      <c r="D7" s="5">
+        <v>17.397162000000002</v>
+      </c>
+      <c r="E7" s="5">
+        <v>13.28476</v>
+      </c>
+      <c r="F7" s="5">
+        <v>231.11712600000001</v>
       </c>
       <c r="G7" s="1">
         <f>$D$2/Tabella4[[#This Row],[Execution Time (s)]]</f>
@@ -1141,7 +1147,7 @@
       </c>
       <c r="H7" s="1">
         <f>100*(1-$E$2/Tabella4[[#This Row],[Power Dissipation (W)]])</f>
-        <v>-5.3701986336222918</v>
+        <v>-5.3701986336222696</v>
       </c>
       <c r="I7" s="1">
         <f>100*(1-$F$2/Tabella4[[#This Row],[Energy Consuption (J)]])</f>
@@ -1158,18 +1164,18 @@
       <c r="C8" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="4">
-        <v>3209316</v>
-      </c>
-      <c r="E8" s="4">
-        <v>32610843</v>
-      </c>
-      <c r="F8" s="4">
-        <v>104658508</v>
+      <c r="D8" s="5">
+        <v>3.2093159999999998</v>
+      </c>
+      <c r="E8" s="5">
+        <v>32.610843000000003</v>
+      </c>
+      <c r="F8" s="5">
+        <v>104.658508</v>
       </c>
       <c r="G8" s="1">
         <f>$D$2/Tabella4[[#This Row],[Execution Time (s)]]</f>
-        <v>3.0805701277156876</v>
+        <v>3.0805701277156881</v>
       </c>
       <c r="H8" s="1">
         <f>100*(1-$E$2/Tabella4[[#This Row],[Power Dissipation (W)]])</f>
@@ -1190,14 +1196,14 @@
       <c r="C9" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="4">
-        <v>3384094</v>
-      </c>
-      <c r="E9" s="4">
-        <v>29111445</v>
-      </c>
-      <c r="F9" s="4">
-        <v>98515869</v>
+      <c r="D9" s="5">
+        <v>3.3840940000000002</v>
+      </c>
+      <c r="E9" s="5">
+        <v>29.111445</v>
+      </c>
+      <c r="F9" s="5">
+        <v>98.515868999999995</v>
       </c>
       <c r="G9" s="1">
         <f>$D$2/Tabella4[[#This Row],[Execution Time (s)]]</f>
@@ -1209,7 +1215,7 @@
       </c>
       <c r="I9" s="1">
         <f>100*(1-$F$2/Tabella4[[#This Row],[Energy Consuption (J)]])</f>
-        <v>-40.478191386607975</v>
+        <v>-40.478191386607996</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -1222,26 +1228,26 @@
       <c r="C10" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="4">
-        <v>4103246</v>
-      </c>
-      <c r="E10" s="4">
-        <v>18150825</v>
-      </c>
-      <c r="F10" s="4">
-        <v>74477295</v>
+      <c r="D10" s="5">
+        <v>4.1032460000000004</v>
+      </c>
+      <c r="E10" s="5">
+        <v>18.150825000000001</v>
+      </c>
+      <c r="F10" s="5">
+        <v>74.477294999999998</v>
       </c>
       <c r="G10" s="1">
         <f>$D$2/Tabella4[[#This Row],[Execution Time (s)]]</f>
-        <v>2.4094395022867263</v>
+        <v>2.4094395022867259</v>
       </c>
       <c r="H10" s="1">
         <f>100*(1-$E$2/Tabella4[[#This Row],[Power Dissipation (W)]])</f>
-        <v>22.878557861694993</v>
+        <v>22.878557861695004</v>
       </c>
       <c r="I10" s="1">
         <f>100*(1-$F$2/Tabella4[[#This Row],[Energy Consuption (J)]])</f>
-        <v>-85.81946484495711</v>
+        <v>-85.819464844957125</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -1254,14 +1260,14 @@
       <c r="C11" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="4">
-        <v>3815650</v>
-      </c>
-      <c r="E11" s="4">
-        <v>22145318</v>
-      </c>
-      <c r="F11" s="4">
-        <v>84498779</v>
+      <c r="D11" s="5">
+        <v>3.8156500000000002</v>
+      </c>
+      <c r="E11" s="5">
+        <v>22.145318</v>
+      </c>
+      <c r="F11" s="5">
+        <v>84.498778999999999</v>
       </c>
       <c r="G11" s="1">
         <f>$D$2/Tabella4[[#This Row],[Execution Time (s)]]</f>
@@ -1273,7 +1279,7 @@
       </c>
       <c r="I11" s="1">
         <f>100*(1-$F$2/Tabella4[[#This Row],[Energy Consuption (J)]])</f>
-        <v>-63.781432865438205</v>
+        <v>-63.781432865438227</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -1286,14 +1292,14 @@
       <c r="C12" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="4">
-        <v>4106920</v>
-      </c>
-      <c r="E12" s="4">
-        <v>18505605</v>
-      </c>
-      <c r="F12" s="4">
-        <v>76001038</v>
+      <c r="D12" s="5">
+        <v>4.1069199999999997</v>
+      </c>
+      <c r="E12" s="5">
+        <v>18.505604999999999</v>
+      </c>
+      <c r="F12" s="5">
+        <v>76.001037999999994</v>
       </c>
       <c r="G12" s="1">
         <f>$D$2/Tabella4[[#This Row],[Execution Time (s)]]</f>
@@ -1305,7 +1311,7 @@
       </c>
       <c r="I12" s="1">
         <f>100*(1-$F$2/Tabella4[[#This Row],[Energy Consuption (J)]])</f>
-        <v>-82.093974821764931</v>
+        <v>-82.093974821764974</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -1316,20 +1322,20 @@
         <v>31</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D13" s="1">
+        <v>53</v>
+      </c>
+      <c r="D13" s="5">
         <v>0.10897999999999999</v>
       </c>
-      <c r="E13" s="4">
-        <v>2716294</v>
-      </c>
-      <c r="F13" s="1">
+      <c r="E13" s="5">
+        <v>2.716294</v>
+      </c>
+      <c r="F13" s="5">
         <v>0.29602099999999998</v>
       </c>
       <c r="G13" s="1">
         <f>$D$2/Tabella4[[#This Row],[Execution Time (s)]]</f>
-        <v>90718691.50302808</v>
+        <v>90.718691503028083</v>
       </c>
       <c r="H13" s="1">
         <f>100*(1-$E$2/Tabella4[[#This Row],[Power Dissipation (W)]])</f>
@@ -1337,21 +1343,21 @@
       </c>
       <c r="I13" s="1">
         <f>100*(1-$F$2/Tabella4[[#This Row],[Energy Consuption (J)]])</f>
-        <v>-46751180052.759438</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" s="5" customFormat="1" ht="19" x14ac:dyDescent="0.2">
-      <c r="A19" s="5" t="s">
+        <v>-46651.180152759443</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" s="4" customFormat="1" ht="19" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="D19" s="4" t="s">
         <v>45</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -1360,15 +1366,15 @@
       </c>
       <c r="B20" s="1">
         <f>F2*D2</f>
-        <v>1368228652247653</v>
+        <v>1368.2286522476531</v>
       </c>
       <c r="C20" s="1">
         <f t="shared" ref="C20:C31" si="0">F2*(D2^2)</f>
-        <v>1.3527024039705423E+22</v>
+        <v>13527.024039705424</v>
       </c>
       <c r="D20" s="1">
         <f t="shared" ref="D20:D31" si="1">F2*(D2^3)</f>
-        <v>1.3373523429010058E+29</v>
+        <v>133735.2342901006</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -1376,16 +1382,16 @@
         <v>22</v>
       </c>
       <c r="B21" s="1">
-        <f t="shared" ref="B20:B31" si="2">F3*D3</f>
-        <v>4022760540995784</v>
+        <f t="shared" ref="B21:B31" si="2">F3*D3</f>
+        <v>4022.7605409957841</v>
       </c>
       <c r="C21" s="1">
         <f t="shared" si="0"/>
-        <v>7.0157603567695194E+22</v>
+        <v>70157.603567695187</v>
       </c>
       <c r="D21" s="1">
         <f t="shared" si="1"/>
-        <v>1.2235601120675893E+30</v>
+        <v>1223560.1120675893</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -1394,15 +1400,15 @@
       </c>
       <c r="B22" s="1">
         <f t="shared" si="2"/>
-        <v>3669231023094560</v>
+        <v>3669.23102309456</v>
       </c>
       <c r="C22" s="1">
         <f t="shared" si="0"/>
-        <v>5.7830662093448805E+22</v>
+        <v>57830.662093448802</v>
       </c>
       <c r="D22" s="1">
         <f t="shared" si="1"/>
-        <v>9.114676773189564E+29</v>
+        <v>911467.67731895635</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -1411,15 +1417,15 @@
       </c>
       <c r="B23" s="1">
         <f t="shared" si="2"/>
-        <v>3690017917676307</v>
+        <v>3690.0179176763068</v>
       </c>
       <c r="C23" s="1">
         <f t="shared" si="0"/>
-        <v>5.7937772059323829E+22</v>
+        <v>57937.772059323826</v>
       </c>
       <c r="D23" s="1">
         <f t="shared" si="1"/>
-        <v>9.0969353159998037E+29</v>
+        <v>909693.53159998031</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -1428,15 +1434,15 @@
       </c>
       <c r="B24" s="1">
         <f t="shared" si="2"/>
-        <v>4021141953927645</v>
+        <v>4021.1419539276449</v>
       </c>
       <c r="C24" s="1">
         <f t="shared" si="0"/>
-        <v>7.5284064951092558E+22</v>
+        <v>75284.064951092558</v>
       </c>
       <c r="D24" s="1">
         <f t="shared" si="1"/>
-        <v>1.4094728563423167E+30</v>
+        <v>1409472.8563423168</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -1445,15 +1451,15 @@
       </c>
       <c r="B25" s="1">
         <f t="shared" si="2"/>
-        <v>4020782081996412</v>
+        <v>4020.7820819964127</v>
       </c>
       <c r="C25" s="1">
         <f t="shared" si="0"/>
-        <v>6.9950197247188866E+22</v>
+        <v>69950.197247188873</v>
       </c>
       <c r="D25" s="1">
         <f t="shared" si="1"/>
-        <v>1.2169349134412987E+30</v>
+        <v>1216934.9134412992</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -1462,15 +1468,15 @@
       </c>
       <c r="B26" s="1">
         <f t="shared" si="2"/>
-        <v>335882224260528</v>
+        <v>335.88222426052795</v>
       </c>
       <c r="C26" s="1">
         <f t="shared" si="0"/>
-        <v>1.0779521964349007E+21</v>
+        <v>1077.9521964349005</v>
       </c>
       <c r="D26" s="1">
         <f t="shared" si="1"/>
-        <v>3.4594892312536696E+27</v>
+        <v>3459.489231253669</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -1479,15 +1485,15 @@
       </c>
       <c r="B27" s="1">
         <f t="shared" si="2"/>
-        <v>333386961187686</v>
+        <v>333.38696118768598</v>
       </c>
       <c r="C27" s="1">
         <f t="shared" si="0"/>
-        <v>1.128212815033481E+21</v>
+        <v>1128.2128150334811</v>
       </c>
       <c r="D27" s="1">
         <f t="shared" si="1"/>
-        <v>3.8179782180779125E+27</v>
+        <v>3817.978218077913</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -1496,15 +1502,15 @@
       </c>
       <c r="B28" s="1">
         <f t="shared" si="2"/>
-        <v>305598662799570</v>
+        <v>305.59866279957004</v>
       </c>
       <c r="C28" s="1">
         <f t="shared" si="0"/>
-        <v>1.2539464907376844E+21</v>
+        <v>1253.9464907376846</v>
       </c>
       <c r="D28" s="1">
         <f t="shared" si="1"/>
-        <v>5.14525092233344E+27</v>
+        <v>5145.2509223334418</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -1513,15 +1519,15 @@
       </c>
       <c r="B29" s="1">
         <f t="shared" si="2"/>
-        <v>322417766091350</v>
+        <v>322.41776609135002</v>
       </c>
       <c r="C29" s="1">
         <f t="shared" si="0"/>
-        <v>1.2302333491864595E+21</v>
+        <v>1230.2333491864597</v>
       </c>
       <c r="D29" s="1">
         <f t="shared" si="1"/>
-        <v>4.6941398788233146E+27</v>
+        <v>4694.1398788233155</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -1530,15 +1536,15 @@
       </c>
       <c r="B30" s="1">
         <f t="shared" si="2"/>
-        <v>312130182982960</v>
+        <v>312.13018298295998</v>
       </c>
       <c r="C30" s="1">
         <f t="shared" si="0"/>
-        <v>1.2818936910963781E+21</v>
+        <v>1281.8936910963778</v>
       </c>
       <c r="D30" s="1">
         <f t="shared" si="1"/>
-        <v>5.2646348378375369E+27</v>
+        <v>5264.6348378375351</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">

--- a/Lab_1/Tables.xlsx
+++ b/Lab_1/Tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lucadipietro/Desktop/UNI/Erasmus/EHC/EHCLab/Lab_1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21627EBE-C22D-2F42-8054-4FAC948CCAC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6949F122-1C15-E848-97DA-B7313B098513}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16080" activeTab="1" xr2:uid="{7C8710E0-D4D5-E54E-A4BB-E37F4F498C84}"/>
+    <workbookView xWindow="-20" yWindow="500" windowWidth="28800" windowHeight="16080" activeTab="1" xr2:uid="{7C8710E0-D4D5-E54E-A4BB-E37F4F498C84}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -915,8 +915,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56F736FC-EA4B-204D-A653-584D4E015D61}">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" zoomScale="135" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1013,15 +1013,15 @@
       <c r="F3" s="5">
         <v>230.660706</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="5">
         <f>$D$2/Tabella4[[#This Row],[Execution Time (s)]]</f>
         <v>0.56688245592185948</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3" s="5">
         <f>100*(1-$E$2/Tabella4[[#This Row],[Power Dissipation (W)]])</f>
         <v>-5.8396699852478084</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I3" s="5">
         <f>100*(1-$F$2/Tabella4[[#This Row],[Energy Consuption (J)]])</f>
         <v>40.001349427934208</v>
       </c>
@@ -1045,15 +1045,15 @@
       <c r="F4" s="5">
         <v>232.80481</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="5">
         <f>$D$2/Tabella4[[#This Row],[Execution Time (s)]]</f>
         <v>0.62727860254339585</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4" s="5">
         <f>100*(1-$E$2/Tabella4[[#This Row],[Power Dissipation (W)]])</f>
         <v>5.2317912358326835</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4" s="5">
         <f>100*(1-$F$2/Tabella4[[#This Row],[Energy Consuption (J)]])</f>
         <v>40.553929706177463</v>
       </c>
@@ -1077,15 +1077,15 @@
       <c r="F5" s="5">
         <v>235.014771</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="5">
         <f>$D$2/Tabella4[[#This Row],[Execution Time (s)]]</f>
         <v>0.62966603162035151</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5" s="5">
         <f>100*(1-$E$2/Tabella4[[#This Row],[Power Dissipation (W)]])</f>
         <v>6.478883891316201</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5" s="5">
         <f>100*(1-$F$2/Tabella4[[#This Row],[Energy Consuption (J)]])</f>
         <v>41.11293072723501</v>
       </c>
@@ -1109,15 +1109,15 @@
       <c r="F6" s="5">
         <v>214.780945</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="5">
         <f>$D$2/Tabella4[[#This Row],[Execution Time (s)]]</f>
         <v>0.52806809036676039</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6" s="5">
         <f>100*(1-$E$2/Tabella4[[#This Row],[Power Dissipation (W)]])</f>
         <v>-22.019550424953515</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6" s="5">
         <f>100*(1-$F$2/Tabella4[[#This Row],[Energy Consuption (J)]])</f>
         <v>35.565368240650955</v>
       </c>
@@ -1141,15 +1141,15 @@
       <c r="F7" s="5">
         <v>231.11712600000001</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="5">
         <f>$D$2/Tabella4[[#This Row],[Execution Time (s)]]</f>
         <v>0.56828366603702374</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7" s="5">
         <f>100*(1-$E$2/Tabella4[[#This Row],[Power Dissipation (W)]])</f>
         <v>-5.3701986336222696</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7" s="5">
         <f>100*(1-$F$2/Tabella4[[#This Row],[Energy Consuption (J)]])</f>
         <v>40.119837333041254</v>
       </c>
@@ -1173,15 +1173,15 @@
       <c r="F8" s="5">
         <v>104.658508</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="5">
         <f>$D$2/Tabella4[[#This Row],[Execution Time (s)]]</f>
         <v>3.0805701277156881</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8" s="5">
         <f>100*(1-$E$2/Tabella4[[#This Row],[Power Dissipation (W)]])</f>
         <v>57.075080825110838</v>
       </c>
-      <c r="I8" s="1">
+      <c r="I8" s="5">
         <f>100*(1-$F$2/Tabella4[[#This Row],[Energy Consuption (J)]])</f>
         <v>-32.233216051579873</v>
       </c>
@@ -1205,15 +1205,15 @@
       <c r="F9" s="5">
         <v>98.515868999999995</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="5">
         <f>$D$2/Tabella4[[#This Row],[Execution Time (s)]]</f>
         <v>2.9214681979874082</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H9" s="5">
         <f>100*(1-$E$2/Tabella4[[#This Row],[Power Dissipation (W)]])</f>
         <v>51.915207232069726</v>
       </c>
-      <c r="I9" s="1">
+      <c r="I9" s="5">
         <f>100*(1-$F$2/Tabella4[[#This Row],[Energy Consuption (J)]])</f>
         <v>-40.478191386607996</v>
       </c>
@@ -1237,15 +1237,15 @@
       <c r="F10" s="5">
         <v>74.477294999999998</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10" s="5">
         <f>$D$2/Tabella4[[#This Row],[Execution Time (s)]]</f>
         <v>2.4094395022867259</v>
       </c>
-      <c r="H10" s="1">
+      <c r="H10" s="5">
         <f>100*(1-$E$2/Tabella4[[#This Row],[Power Dissipation (W)]])</f>
         <v>22.878557861695004</v>
       </c>
-      <c r="I10" s="1">
+      <c r="I10" s="5">
         <f>100*(1-$F$2/Tabella4[[#This Row],[Energy Consuption (J)]])</f>
         <v>-85.819464844957125</v>
       </c>
@@ -1269,15 +1269,15 @@
       <c r="F11" s="5">
         <v>84.498778999999999</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11" s="5">
         <f>$D$2/Tabella4[[#This Row],[Execution Time (s)]]</f>
         <v>2.5910455623550379</v>
       </c>
-      <c r="H11" s="1">
+      <c r="H11" s="5">
         <f>100*(1-$E$2/Tabella4[[#This Row],[Power Dissipation (W)]])</f>
         <v>36.789446870891631</v>
       </c>
-      <c r="I11" s="1">
+      <c r="I11" s="5">
         <f>100*(1-$F$2/Tabella4[[#This Row],[Energy Consuption (J)]])</f>
         <v>-63.781432865438227</v>
       </c>
@@ -1301,15 +1301,15 @@
       <c r="F12" s="5">
         <v>76.001037999999994</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G12" s="5">
         <f>$D$2/Tabella4[[#This Row],[Execution Time (s)]]</f>
         <v>2.4072840474126598</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H12" s="5">
         <f>100*(1-$E$2/Tabella4[[#This Row],[Power Dissipation (W)]])</f>
         <v>24.357090730078802</v>
       </c>
-      <c r="I12" s="1">
+      <c r="I12" s="5">
         <f>100*(1-$F$2/Tabella4[[#This Row],[Energy Consuption (J)]])</f>
         <v>-82.093974821764974</v>
       </c>
@@ -1333,15 +1333,15 @@
       <c r="F13" s="5">
         <v>0.29602099999999998</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G13" s="5">
         <f>$D$2/Tabella4[[#This Row],[Execution Time (s)]]</f>
         <v>90.718691503028083</v>
       </c>
-      <c r="H13" s="1">
+      <c r="H13" s="5">
         <f>100*(1-$E$2/Tabella4[[#This Row],[Power Dissipation (W)]])</f>
         <v>-415.34104923841085</v>
       </c>
-      <c r="I13" s="1">
+      <c r="I13" s="5">
         <f>100*(1-$F$2/Tabella4[[#This Row],[Energy Consuption (J)]])</f>
         <v>-46651.180152759443</v>
       </c>
